--- a/biology/Botanique/Nasturtium/Nasturtium.xlsx
+++ b/biology/Botanique/Nasturtium/Nasturtium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nasturtium est un genre de plantes herbacées de la famille des Brassicaceae.
 Le cresson de fontaine, une plante potagère vivace, en fait partie. Le genre Nasturtium est présent sur l'ensemble du globe ou presque.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nasturtium africanum Braun-Blanq.
 Nasturtium floridanum (Al-Shehbaz &amp; Rollins) Al-Shehbaz &amp; R.A.Price
